--- a/Data/DQO_contaminated.xlsx
+++ b/Data/DQO_contaminated.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charly\Documents\Data Science\Projects\water_management\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A6F2737-5F2B-4775-B32A-608597BCB966}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA2240B-A3E3-440F-B304-833666F6099B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12885" yWindow="3780" windowWidth="27960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2235" yWindow="3825" windowWidth="27960" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
     <t>Clave</t>
   </si>
   <si>
-    <t xml:space="preserve">Nombre </t>
-  </si>
-  <si>
     <t>I</t>
   </si>
   <si>
@@ -120,6 +117,9 @@
   </si>
   <si>
     <t>Aguas del Valle de México</t>
+  </si>
+  <si>
+    <t>Nombre</t>
   </si>
 </sst>
 </file>
@@ -489,7 +489,7 @@
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S7" sqref="S7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,7 +503,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>27</v>
       </c>
       <c r="C1" s="1">
         <v>2005</v>
@@ -553,10 +553,10 @@
     </row>
     <row r="2" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="C2" s="3">
         <v>53.3</v>
@@ -606,10 +606,10 @@
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C3" s="3">
         <v>50</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="4" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="3">
         <v>33.299999999999997</v>
@@ -712,10 +712,10 @@
     </row>
     <row r="5" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>8</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
       </c>
       <c r="C5" s="3">
         <v>47.5</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="6" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="C6" s="3">
         <v>0</v>
@@ -818,10 +818,10 @@
     </row>
     <row r="7" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="C7" s="3">
         <v>79</v>
@@ -871,10 +871,10 @@
     </row>
     <row r="8" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>15</v>
       </c>
       <c r="C8" s="3">
         <v>0</v>
@@ -924,10 +924,10 @@
     </row>
     <row r="9" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>17</v>
       </c>
       <c r="C9" s="3">
         <v>56.1</v>
@@ -977,10 +977,10 @@
     </row>
     <row r="10" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>18</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="C10" s="3">
         <v>5.9</v>
@@ -1030,10 +1030,10 @@
     </row>
     <row r="11" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
       </c>
       <c r="C11" s="3">
         <v>34.4</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="12" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>22</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>23</v>
       </c>
       <c r="C12" s="3">
         <v>18.5</v>
@@ -1136,10 +1136,10 @@
     </row>
     <row r="13" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>24</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>25</v>
       </c>
       <c r="C13" s="3">
         <v>7.1</v>
@@ -1189,10 +1189,10 @@
     </row>
     <row r="14" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>26</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>27</v>
       </c>
       <c r="C14" s="3">
         <v>80</v>
